--- a/data/HikeDB.xlsx
+++ b/data/HikeDB.xlsx
@@ -2655,9 +2655,6 @@
     <t>De_Na_Zin.GPX</t>
   </si>
   <si>
-    <t>De_Na-Zin.json</t>
-  </si>
-  <si>
     <t>https://www.flickr.com/photos/139088815@N08/albums/72157674420137292</t>
   </si>
   <si>
@@ -2851,6 +2848,9 @@
   </si>
   <si>
     <t>Use markerID for a Visitor Center hike as if standalone: eg single, "normal"; multiple "cluster"</t>
+  </si>
+  <si>
+    <t>De_Na_Zin.json</t>
   </si>
 </sst>
 </file>
@@ -3376,10 +3376,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
+      <selection pane="bottomLeft" activeCell="S96" sqref="S96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3446,10 +3446,10 @@
         <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
@@ -3518,7 +3518,7 @@
         <v>21</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -3564,7 +3564,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -3602,7 +3602,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C5" t="s">
         <v>59</v>
@@ -3637,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -4051,7 +4051,7 @@
         <v>98</v>
       </c>
       <c r="AC12" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -4116,7 +4116,7 @@
         <v>105</v>
       </c>
       <c r="AC13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -4193,7 +4193,7 @@
         <v>133</v>
       </c>
       <c r="AC14" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -4270,7 +4270,7 @@
         <v>141</v>
       </c>
       <c r="AC15" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -4347,7 +4347,7 @@
         <v>152</v>
       </c>
       <c r="AC16" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -4424,7 +4424,7 @@
         <v>158</v>
       </c>
       <c r="AC17" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -4489,7 +4489,7 @@
         <v>165</v>
       </c>
       <c r="AC18" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -4554,7 +4554,7 @@
         <v>168</v>
       </c>
       <c r="AC19" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -4619,7 +4619,7 @@
         <v>171</v>
       </c>
       <c r="AC20" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -4699,7 +4699,7 @@
         <v>186</v>
       </c>
       <c r="AC21" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -4773,7 +4773,7 @@
         <v>194</v>
       </c>
       <c r="AC22" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -4850,7 +4850,7 @@
         <v>203</v>
       </c>
       <c r="AC23" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -4927,7 +4927,7 @@
         <v>217</v>
       </c>
       <c r="AC24" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -5004,7 +5004,7 @@
         <v>225</v>
       </c>
       <c r="AC25" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -5081,7 +5081,7 @@
         <v>235</v>
       </c>
       <c r="AC26" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>245</v>
       </c>
       <c r="AC27" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>255</v>
       </c>
       <c r="AC28" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -5309,7 +5309,7 @@
         <v>267</v>
       </c>
       <c r="AC29" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -5386,7 +5386,7 @@
         <v>276</v>
       </c>
       <c r="AC30" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -5464,7 +5464,7 @@
         <v>336</v>
       </c>
       <c r="AC31" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -5541,7 +5541,7 @@
         <v>851</v>
       </c>
       <c r="AC32" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -9666,7 +9666,7 @@
         <v>877</v>
       </c>
       <c r="S95" t="s">
-        <v>878</v>
+        <v>943</v>
       </c>
       <c r="T95" s="5">
         <v>36.311774999999997</v>
@@ -9675,16 +9675,16 @@
         <v>-108.00259440000001</v>
       </c>
       <c r="X95" t="s">
+        <v>878</v>
+      </c>
+      <c r="Z95" t="s">
         <v>879</v>
-      </c>
-      <c r="Z95" t="s">
-        <v>880</v>
       </c>
       <c r="AA95" t="s">
         <v>45</v>
       </c>
       <c r="AB95" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -9692,10 +9692,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
+        <v>881</v>
+      </c>
+      <c r="C96" t="s">
         <v>882</v>
-      </c>
-      <c r="C96" t="s">
-        <v>883</v>
       </c>
       <c r="D96" t="s">
         <v>42</v>
@@ -9725,19 +9725,19 @@
         <v>35</v>
       </c>
       <c r="O96" t="s">
+        <v>883</v>
+      </c>
+      <c r="P96" t="s">
         <v>884</v>
       </c>
-      <c r="P96" t="s">
+      <c r="Q96" t="s">
         <v>885</v>
       </c>
-      <c r="Q96" t="s">
+      <c r="R96" t="s">
         <v>886</v>
       </c>
-      <c r="R96" t="s">
+      <c r="S96" t="s">
         <v>887</v>
-      </c>
-      <c r="S96" t="s">
-        <v>888</v>
       </c>
       <c r="T96" s="5">
         <v>36.241438899999999</v>
@@ -9746,16 +9746,16 @@
         <v>-108.2632335</v>
       </c>
       <c r="X96" t="s">
+        <v>888</v>
+      </c>
+      <c r="Z96" t="s">
         <v>889</v>
-      </c>
-      <c r="Z96" t="s">
-        <v>890</v>
       </c>
       <c r="AA96" t="s">
         <v>45</v>
       </c>
       <c r="AB96" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -9763,7 +9763,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C97" t="s">
         <v>63</v>
@@ -9787,7 +9787,7 @@
         <v>122</v>
       </c>
       <c r="L97" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="M97" t="s">
         <v>124</v>
@@ -9796,19 +9796,19 @@
         <v>36</v>
       </c>
       <c r="O97" t="s">
+        <v>893</v>
+      </c>
+      <c r="P97" t="s">
         <v>894</v>
       </c>
-      <c r="P97" t="s">
+      <c r="Q97" t="s">
         <v>895</v>
       </c>
-      <c r="Q97" t="s">
+      <c r="R97" t="s">
         <v>896</v>
       </c>
-      <c r="R97" t="s">
+      <c r="S97" t="s">
         <v>897</v>
-      </c>
-      <c r="S97" t="s">
-        <v>898</v>
       </c>
       <c r="T97" s="5">
         <v>35.222724999999997</v>
@@ -9817,16 +9817,16 @@
         <v>-106.48348</v>
       </c>
       <c r="X97" t="s">
+        <v>905</v>
+      </c>
+      <c r="Z97" t="s">
         <v>906</v>
-      </c>
-      <c r="Z97" t="s">
-        <v>907</v>
       </c>
       <c r="AA97" t="s">
         <v>45</v>
       </c>
       <c r="AB97" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -9834,7 +9834,7 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C98" t="s">
         <v>63</v>
@@ -9858,7 +9858,7 @@
         <v>68</v>
       </c>
       <c r="L98" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="M98" t="s">
         <v>634</v>
@@ -9867,16 +9867,16 @@
         <v>35</v>
       </c>
       <c r="O98" t="s">
+        <v>901</v>
+      </c>
+      <c r="P98" t="s">
         <v>902</v>
       </c>
-      <c r="P98" t="s">
+      <c r="R98" t="s">
         <v>903</v>
       </c>
-      <c r="R98" t="s">
+      <c r="S98" t="s">
         <v>904</v>
-      </c>
-      <c r="S98" t="s">
-        <v>905</v>
       </c>
       <c r="T98" s="5">
         <v>35.130690000000001</v>
@@ -9885,16 +9885,16 @@
         <v>-106.684523</v>
       </c>
       <c r="X98" t="s">
+        <v>907</v>
+      </c>
+      <c r="Z98" t="s">
         <v>908</v>
-      </c>
-      <c r="Z98" t="s">
-        <v>909</v>
       </c>
       <c r="AA98" t="s">
         <v>45</v>
       </c>
       <c r="AB98" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -9902,7 +9902,7 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C99" t="s">
         <v>345</v>
@@ -9914,10 +9914,10 @@
         <v>24</v>
       </c>
       <c r="H99" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="I99" s="7" t="s">
         <v>912</v>
-      </c>
-      <c r="I99" s="7" t="s">
-        <v>913</v>
       </c>
       <c r="J99" t="s">
         <v>29</v>
@@ -9935,19 +9935,19 @@
         <v>35</v>
       </c>
       <c r="O99" t="s">
+        <v>913</v>
+      </c>
+      <c r="P99" t="s">
         <v>914</v>
       </c>
-      <c r="P99" t="s">
+      <c r="Q99" t="s">
         <v>915</v>
       </c>
-      <c r="Q99" t="s">
+      <c r="R99" t="s">
         <v>916</v>
       </c>
-      <c r="R99" t="s">
+      <c r="S99" t="s">
         <v>917</v>
-      </c>
-      <c r="S99" t="s">
-        <v>918</v>
       </c>
       <c r="T99" s="5">
         <v>35.450367</v>
@@ -9956,16 +9956,16 @@
         <v>-106.13902299999999</v>
       </c>
       <c r="X99" t="s">
+        <v>918</v>
+      </c>
+      <c r="Z99" t="s">
         <v>919</v>
-      </c>
-      <c r="Z99" t="s">
-        <v>920</v>
       </c>
       <c r="AA99" t="s">
         <v>45</v>
       </c>
       <c r="AB99" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9973,7 +9973,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C100" t="s">
         <v>385</v>
@@ -10056,7 +10056,7 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -10067,7 +10067,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10078,7 +10078,7 @@
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -10089,7 +10089,7 @@
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -10100,7 +10100,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -10111,7 +10111,7 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="116" spans="1:3">

--- a/data/HikeDB.xlsx
+++ b/data/HikeDB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="500" windowWidth="23600" windowHeight="13760" tabRatio="500"/>
+    <workbookView xWindow="3560" yWindow="6300" windowWidth="23600" windowHeight="13760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="979">
   <si>
     <t>Indx#</t>
   </si>
@@ -93,15 +93,6 @@
     <t>Feet</t>
   </si>
   <si>
-    <t>out-and-back</t>
-  </si>
-  <si>
-    <t>loop</t>
-  </si>
-  <si>
-    <t>two-car</t>
-  </si>
-  <si>
     <t>Type:</t>
   </si>
   <si>
@@ -237,9 +228,6 @@
     <t>https://www.flickr.com/photos/139088815@N08/albums/72157669594168785</t>
   </si>
   <si>
-    <t>mainloop.tsv</t>
-  </si>
-  <si>
     <t>Upper &amp;amp; Lower Falls</t>
   </si>
   <si>
@@ -309,9 +297,6 @@
     <t>Great Views</t>
   </si>
   <si>
-    <t>altoloop.tsv</t>
-  </si>
-  <si>
     <t>https://www.flickr.com/photos/139088815@N08/albums/72157668935441575</t>
   </si>
   <si>
@@ -2829,9 +2814,6 @@
     <t>NOTES:</t>
   </si>
   <si>
-    <t>New hikes should always be placed at the end</t>
-  </si>
-  <si>
     <t>Org Hikes</t>
   </si>
   <si>
@@ -2953,6 +2935,27 @@
   </si>
   <si>
     <t>https://www.flickr.com/photos/30474783@N06/albums/72157672256608474</t>
+  </si>
+  <si>
+    <t>New hikes should always be placed at the end (this may become automated via form creation)</t>
+  </si>
+  <si>
+    <t>Copy entire &lt;div&gt; for rows, lists, refs, data etc. (may become automated via form creation)</t>
+  </si>
+  <si>
+    <t>Out-and-Back</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Two-Car</t>
+  </si>
+  <si>
+    <t>mainLoop.tsv</t>
+  </si>
+  <si>
+    <t>altoLoop.tsv</t>
   </si>
 </sst>
 </file>
@@ -3033,8 +3036,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3112,7 +3119,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3130,6 +3137,8 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3147,6 +3156,8 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3478,10 +3489,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="AP96" sqref="AP96"/>
+      <selection pane="bottomLeft" activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3545,13 +3556,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
@@ -3614,52 +3625,52 @@
         <v>20</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="AE2" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="AL2" s="3" t="s">
         <v>944</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>945</v>
       </c>
-      <c r="AG2" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="AP2" s="3" t="s">
         <v>957</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>950</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>951</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="3" spans="1:42">
@@ -3667,22 +3678,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
       </c>
       <c r="T3" s="5">
         <v>35.779038999999997</v>
@@ -3691,13 +3702,13 @@
         <v>-106.270788</v>
       </c>
       <c r="Z3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -3705,22 +3716,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T4" s="5">
         <v>36.030250000000002</v>
@@ -3729,13 +3740,13 @@
         <v>-107.91079999999999</v>
       </c>
       <c r="Z4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AA4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -3743,19 +3754,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="T5" s="5">
         <v>34.970407000000002</v>
@@ -3764,13 +3775,13 @@
         <v>-107.810152</v>
       </c>
       <c r="Z5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AA5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -3778,19 +3789,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T6" s="5">
         <v>35.138643999999999</v>
@@ -3799,13 +3810,13 @@
         <v>-106.711196</v>
       </c>
       <c r="Z6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -3813,43 +3824,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>975</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" t="s">
-        <v>51</v>
-      </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>977</v>
       </c>
       <c r="T7" s="5">
         <v>35.778942999999998</v>
@@ -3858,16 +3869,16 @@
         <v>-106.270838</v>
       </c>
       <c r="X7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -3875,43 +3886,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>974</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" t="s">
-        <v>74</v>
-      </c>
-      <c r="M8" t="s">
-        <v>51</v>
-      </c>
       <c r="N8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T8" s="5">
         <v>35.788735000000003</v>
@@ -3920,16 +3931,16 @@
         <v>-106.282079</v>
       </c>
       <c r="X8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Z8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -3937,43 +3948,43 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>974</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="J9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" t="s">
-        <v>51</v>
-      </c>
       <c r="N9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="T9" s="5">
         <v>35.779218999999998</v>
@@ -3982,16 +3993,16 @@
         <v>-106.28574399999999</v>
       </c>
       <c r="X9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -3999,43 +4010,43 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>975</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="J10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" t="s">
-        <v>51</v>
-      </c>
       <c r="N10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T10" s="5">
         <v>35.769573000000001</v>
@@ -4044,16 +4055,16 @@
         <v>-106.282433</v>
       </c>
       <c r="X10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Z10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -4061,43 +4072,43 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>974</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" t="s">
-        <v>89</v>
-      </c>
-      <c r="M11" t="s">
-        <v>51</v>
-      </c>
       <c r="N11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="T11" s="5">
         <v>35.764311999999997</v>
@@ -4106,16 +4117,16 @@
         <v>-106.273698</v>
       </c>
       <c r="X11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -4123,76 +4134,76 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>975</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>978</v>
+      </c>
+      <c r="P12" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>96</v>
+      </c>
+      <c r="R12" t="s">
+        <v>124</v>
+      </c>
+      <c r="S12" t="s">
+        <v>97</v>
+      </c>
+      <c r="T12" s="5">
+        <v>36.064936000000003</v>
+      </c>
+      <c r="U12" s="5">
+        <v>-107.969768</v>
+      </c>
+      <c r="X12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB12" t="s">
         <v>93</v>
       </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="J12" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" t="s">
-        <v>68</v>
-      </c>
-      <c r="L12" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" t="s">
-        <v>96</v>
-      </c>
-      <c r="P12" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>101</v>
-      </c>
-      <c r="R12" t="s">
-        <v>129</v>
-      </c>
-      <c r="S12" t="s">
-        <v>102</v>
-      </c>
-      <c r="T12" s="5">
-        <v>36.068607999999998</v>
-      </c>
-      <c r="U12" s="5">
-        <v>-107.9599</v>
-      </c>
-      <c r="X12" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>98</v>
-      </c>
       <c r="AC12" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="13" spans="1:42">
@@ -4200,64 +4211,64 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>974</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" s="5">
+        <v>36.064936000000003</v>
+      </c>
+      <c r="U13" s="5">
+        <v>-107.969768</v>
+      </c>
+      <c r="V13" t="s">
+        <v>98</v>
+      </c>
+      <c r="X13" t="s">
         <v>99</v>
       </c>
-      <c r="C13" t="s">
+      <c r="Z13" t="s">
         <v>54</v>
       </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="J13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" t="s">
-        <v>68</v>
-      </c>
-      <c r="L13" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T13" s="5">
-        <v>36.063864000000002</v>
-      </c>
-      <c r="U13" s="5">
-        <v>-107.981315</v>
-      </c>
-      <c r="V13" t="s">
-        <v>103</v>
-      </c>
-      <c r="X13" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>57</v>
-      </c>
       <c r="AA13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB13" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AC13" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="14" spans="1:42">
@@ -4265,55 +4276,55 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" t="s">
+        <v>119</v>
+      </c>
+      <c r="N14" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>122</v>
+      </c>
+      <c r="R14" t="s">
         <v>123</v>
       </c>
-      <c r="M14" t="s">
-        <v>124</v>
-      </c>
-      <c r="N14" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="S14" t="s">
         <v>125</v>
-      </c>
-      <c r="P14" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>127</v>
-      </c>
-      <c r="R14" t="s">
-        <v>128</v>
-      </c>
-      <c r="S14" t="s">
-        <v>130</v>
       </c>
       <c r="T14" s="5">
         <v>35.163249999999998</v>
@@ -4322,19 +4333,19 @@
         <v>-106.470067</v>
       </c>
       <c r="X14" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="Z14" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AA14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AC14" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -4342,55 +4353,55 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" t="s">
         <v>33</v>
       </c>
-      <c r="K15" t="s">
+      <c r="O15" t="s">
+        <v>131</v>
+      </c>
+      <c r="P15" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>174</v>
+      </c>
+      <c r="R15" t="s">
+        <v>133</v>
+      </c>
+      <c r="S15" t="s">
         <v>134</v>
-      </c>
-      <c r="L15" t="s">
-        <v>135</v>
-      </c>
-      <c r="M15" t="s">
-        <v>124</v>
-      </c>
-      <c r="N15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O15" t="s">
-        <v>136</v>
-      </c>
-      <c r="P15" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>179</v>
-      </c>
-      <c r="R15" t="s">
-        <v>138</v>
-      </c>
-      <c r="S15" t="s">
-        <v>139</v>
       </c>
       <c r="T15" s="5">
         <v>35.167093000000001</v>
@@ -4399,19 +4410,19 @@
         <v>-106.465502</v>
       </c>
       <c r="X15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Z15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AA15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AC15" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
     </row>
     <row r="16" spans="1:42">
@@ -4419,55 +4430,55 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>974</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="s">
+        <v>119</v>
+      </c>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" t="s">
+        <v>141</v>
+      </c>
+      <c r="P16" t="s">
         <v>142</v>
       </c>
-      <c r="C16" t="s">
+      <c r="Q16" t="s">
+        <v>175</v>
+      </c>
+      <c r="R16" t="s">
         <v>143</v>
       </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="S16" t="s">
         <v>144</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="J16" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" t="s">
-        <v>122</v>
-      </c>
-      <c r="L16" t="s">
-        <v>145</v>
-      </c>
-      <c r="M16" t="s">
-        <v>124</v>
-      </c>
-      <c r="N16" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" t="s">
-        <v>146</v>
-      </c>
-      <c r="P16" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>180</v>
-      </c>
-      <c r="R16" t="s">
-        <v>148</v>
-      </c>
-      <c r="S16" t="s">
-        <v>149</v>
       </c>
       <c r="T16" s="5">
         <v>35.046562000000002</v>
@@ -4476,19 +4487,19 @@
         <v>-106.383088</v>
       </c>
       <c r="X16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="Z16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AA16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AC16" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
     </row>
     <row r="17" spans="1:40">
@@ -4496,55 +4507,55 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M17" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O17" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q17" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="R17" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="S17" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="T17" s="5">
         <v>35.055937999999998</v>
@@ -4553,19 +4564,19 @@
         <v>-106.38851200000001</v>
       </c>
       <c r="X17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Z17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AA17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB17" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AC17" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
     </row>
     <row r="18" spans="1:40">
@@ -4573,40 +4584,40 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K18" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L18" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T18" s="5">
         <v>35.161988000000001</v>
@@ -4615,22 +4626,22 @@
         <v>-106.718203</v>
       </c>
       <c r="V18" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="X18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="Z18" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AA18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB18" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="AC18" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="19" spans="1:40">
@@ -4638,40 +4649,40 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T19" s="5">
         <v>35.165470999999997</v>
@@ -4680,22 +4691,22 @@
         <v>-106.729088</v>
       </c>
       <c r="V19" t="s">
+        <v>157</v>
+      </c>
+      <c r="X19" t="s">
         <v>162</v>
       </c>
-      <c r="X19" t="s">
-        <v>167</v>
-      </c>
       <c r="Z19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AA19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AC19" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="20" spans="1:40">
@@ -4703,40 +4714,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T20" s="5">
         <v>35.170242000000002</v>
@@ -4745,22 +4756,22 @@
         <v>-106.717243</v>
       </c>
       <c r="V20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="X20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Z20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AA20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AC20" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -4768,52 +4779,52 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>974</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="J21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="s">
+        <v>119</v>
+      </c>
+      <c r="N21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" t="s">
         <v>172</v>
       </c>
-      <c r="C21" t="s">
+      <c r="P21" t="s">
         <v>173</v>
       </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="J21" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" t="s">
-        <v>175</v>
-      </c>
-      <c r="L21" t="s">
-        <v>176</v>
-      </c>
-      <c r="M21" t="s">
-        <v>124</v>
-      </c>
-      <c r="N21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O21" t="s">
-        <v>177</v>
-      </c>
-      <c r="P21" t="s">
-        <v>178</v>
-      </c>
       <c r="R21" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="S21" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="T21" s="5">
         <v>35.769508000000002</v>
@@ -4822,25 +4833,25 @@
         <v>-105.809155</v>
       </c>
       <c r="V21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="W21" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="X21" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="Z21" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AA21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB21" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AC21" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="22" spans="1:40">
@@ -4848,52 +4859,52 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="J22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K22" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L22" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M22" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O22" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="R22" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="S22" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="T22" s="5">
         <v>35.738236000000001</v>
@@ -4902,19 +4913,19 @@
         <v>-105.77911400000001</v>
       </c>
       <c r="X22" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="Z22" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="AA22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB22" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AC22" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="23" spans="1:40">
@@ -4922,55 +4933,55 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" t="s">
+        <v>975</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="J23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" t="s">
+        <v>129</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="s">
+        <v>119</v>
+      </c>
+      <c r="N23" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" t="s">
+        <v>193</v>
+      </c>
+      <c r="P23" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>207</v>
+      </c>
+      <c r="R23" t="s">
         <v>195</v>
       </c>
-      <c r="C23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" t="s">
-        <v>196</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="J23" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" t="s">
-        <v>134</v>
-      </c>
-      <c r="L23" t="s">
-        <v>197</v>
-      </c>
-      <c r="M23" t="s">
-        <v>124</v>
-      </c>
-      <c r="N23" t="s">
-        <v>36</v>
-      </c>
-      <c r="O23" t="s">
-        <v>198</v>
-      </c>
-      <c r="P23" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>212</v>
-      </c>
-      <c r="R23" t="s">
-        <v>200</v>
-      </c>
       <c r="S23" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T23" s="5">
         <v>35.795845</v>
@@ -4979,19 +4990,19 @@
         <v>-105.804605</v>
       </c>
       <c r="X23" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Z23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB23" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AC23" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -4999,55 +5010,55 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" t="s">
+        <v>974</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" t="s">
+        <v>129</v>
+      </c>
+      <c r="L24" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" t="s">
+        <v>119</v>
+      </c>
+      <c r="N24" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" t="s">
+        <v>205</v>
+      </c>
+      <c r="P24" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q24" t="s">
         <v>208</v>
       </c>
-      <c r="C24" t="s">
-        <v>173</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>196</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="J24" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" t="s">
-        <v>134</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="R24" t="s">
         <v>209</v>
       </c>
-      <c r="M24" t="s">
-        <v>124</v>
-      </c>
-      <c r="N24" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="S24" t="s">
         <v>210</v>
-      </c>
-      <c r="P24" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>213</v>
-      </c>
-      <c r="R24" t="s">
-        <v>214</v>
-      </c>
-      <c r="S24" t="s">
-        <v>215</v>
       </c>
       <c r="T24" s="5">
         <v>35.818626999999999</v>
@@ -5056,19 +5067,19 @@
         <v>-105.79764900000001</v>
       </c>
       <c r="X24" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Z24" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB24" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AC24" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="25" spans="1:40">
@@ -5076,55 +5087,55 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" t="s">
+        <v>974</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="J25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" t="s">
+        <v>129</v>
+      </c>
+      <c r="L25" t="s">
+        <v>214</v>
+      </c>
+      <c r="M25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O25" t="s">
+        <v>215</v>
+      </c>
+      <c r="P25" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>225</v>
+      </c>
+      <c r="R25" t="s">
+        <v>217</v>
+      </c>
+      <c r="S25" t="s">
         <v>218</v>
-      </c>
-      <c r="C25" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" t="s">
-        <v>196</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="J25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" t="s">
-        <v>134</v>
-      </c>
-      <c r="L25" t="s">
-        <v>219</v>
-      </c>
-      <c r="M25" t="s">
-        <v>124</v>
-      </c>
-      <c r="N25" t="s">
-        <v>36</v>
-      </c>
-      <c r="O25" t="s">
-        <v>220</v>
-      </c>
-      <c r="P25" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>230</v>
-      </c>
-      <c r="R25" t="s">
-        <v>222</v>
-      </c>
-      <c r="S25" t="s">
-        <v>223</v>
       </c>
       <c r="T25" s="5">
         <v>35.816873000000001</v>
@@ -5133,19 +5144,19 @@
         <v>-105.81579600000001</v>
       </c>
       <c r="X25" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="Z25" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB25" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AC25" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="26" spans="1:40">
@@ -5153,55 +5164,55 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" t="s">
+        <v>974</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="J26" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L26" t="s">
+        <v>222</v>
+      </c>
+      <c r="M26" t="s">
+        <v>119</v>
+      </c>
+      <c r="N26" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" t="s">
+        <v>223</v>
+      </c>
+      <c r="P26" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q26" t="s">
         <v>226</v>
       </c>
-      <c r="C26" t="s">
-        <v>173</v>
-      </c>
-      <c r="D26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" t="s">
-        <v>196</v>
-      </c>
-      <c r="G26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="J26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K26" t="s">
-        <v>134</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="R26" t="s">
         <v>227</v>
       </c>
-      <c r="M26" t="s">
-        <v>124</v>
-      </c>
-      <c r="N26" t="s">
-        <v>36</v>
-      </c>
-      <c r="O26" t="s">
-        <v>228</v>
-      </c>
-      <c r="P26" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>231</v>
-      </c>
-      <c r="R26" t="s">
-        <v>232</v>
-      </c>
       <c r="S26" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="T26" s="5">
         <v>35.802801000000002</v>
@@ -5210,19 +5221,19 @@
         <v>-105.827387</v>
       </c>
       <c r="X26" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="Z26" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB26" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AC26" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="27" spans="1:40">
@@ -5230,52 +5241,52 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
+        <v>232</v>
+      </c>
+      <c r="G27" t="s">
+        <v>976</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>170</v>
+      </c>
+      <c r="L27" t="s">
+        <v>171</v>
+      </c>
+      <c r="M27" t="s">
+        <v>119</v>
+      </c>
+      <c r="N27" t="s">
+        <v>33</v>
+      </c>
+      <c r="O27" t="s">
+        <v>233</v>
+      </c>
+      <c r="P27" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>235</v>
+      </c>
+      <c r="S27" t="s">
         <v>237</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="J27" t="s">
-        <v>30</v>
-      </c>
-      <c r="K27" t="s">
-        <v>175</v>
-      </c>
-      <c r="L27" t="s">
-        <v>176</v>
-      </c>
-      <c r="M27" t="s">
-        <v>124</v>
-      </c>
-      <c r="N27" t="s">
-        <v>36</v>
-      </c>
-      <c r="O27" t="s">
-        <v>238</v>
-      </c>
-      <c r="P27" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>240</v>
-      </c>
-      <c r="S27" t="s">
-        <v>242</v>
       </c>
       <c r="T27" s="5">
         <v>35.820818000000003</v>
@@ -5284,19 +5295,19 @@
         <v>-106.591123</v>
       </c>
       <c r="X27" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="Z27" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="AA27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB27" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AC27" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
     </row>
     <row r="28" spans="1:40">
@@ -5304,55 +5315,55 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" t="s">
+        <v>976</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="J28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" t="s">
+        <v>170</v>
+      </c>
+      <c r="L28" t="s">
+        <v>242</v>
+      </c>
+      <c r="M28" t="s">
+        <v>119</v>
+      </c>
+      <c r="N28" t="s">
+        <v>33</v>
+      </c>
+      <c r="O28" t="s">
+        <v>243</v>
+      </c>
+      <c r="P28" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>245</v>
+      </c>
+      <c r="R28" t="s">
         <v>246</v>
       </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="J28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" t="s">
-        <v>175</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="S28" t="s">
         <v>247</v>
-      </c>
-      <c r="M28" t="s">
-        <v>124</v>
-      </c>
-      <c r="N28" t="s">
-        <v>36</v>
-      </c>
-      <c r="O28" t="s">
-        <v>248</v>
-      </c>
-      <c r="P28" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>250</v>
-      </c>
-      <c r="R28" t="s">
-        <v>251</v>
-      </c>
-      <c r="S28" t="s">
-        <v>252</v>
       </c>
       <c r="T28" s="5">
         <v>35.825727000000001</v>
@@ -5361,46 +5372,46 @@
         <v>-106.599355</v>
       </c>
       <c r="X28" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="Z28" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AA28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB28" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AC28" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="AD28" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="AE28" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="AF28" t="s">
+        <v>960</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>961</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>962</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>963</v>
+      </c>
+      <c r="AL28" t="s">
         <v>966</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AM28" t="s">
         <v>967</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="AN28" t="s">
         <v>968</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>969</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>972</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>973</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="29" spans="1:40">
@@ -5408,55 +5419,55 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" t="s">
+        <v>974</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="J29" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M29" t="s">
+        <v>119</v>
+      </c>
+      <c r="N29" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" t="s">
+        <v>255</v>
+      </c>
+      <c r="P29" t="s">
         <v>256</v>
       </c>
-      <c r="C29" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="Q29" t="s">
         <v>257</v>
       </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="J29" t="s">
-        <v>31</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="R29" t="s">
         <v>258</v>
       </c>
-      <c r="L29" t="s">
+      <c r="S29" t="s">
         <v>259</v>
-      </c>
-      <c r="M29" t="s">
-        <v>124</v>
-      </c>
-      <c r="N29" t="s">
-        <v>35</v>
-      </c>
-      <c r="O29" t="s">
-        <v>260</v>
-      </c>
-      <c r="P29" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>262</v>
-      </c>
-      <c r="R29" t="s">
-        <v>263</v>
-      </c>
-      <c r="S29" t="s">
-        <v>264</v>
       </c>
       <c r="T29" s="5">
         <v>35.777433000000002</v>
@@ -5465,19 +5476,19 @@
         <v>-105.81093300000001</v>
       </c>
       <c r="X29" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="Z29" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AA29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB29" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AC29" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
     </row>
     <row r="30" spans="1:40">
@@ -5485,55 +5496,55 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>263</v>
+      </c>
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" t="s">
+        <v>974</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s">
+        <v>253</v>
+      </c>
+      <c r="L30" t="s">
+        <v>264</v>
+      </c>
+      <c r="M30" t="s">
+        <v>119</v>
+      </c>
+      <c r="N30" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" t="s">
+        <v>265</v>
+      </c>
+      <c r="P30" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q30" t="s">
         <v>268</v>
       </c>
-      <c r="C30" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F30" t="s">
-        <v>257</v>
-      </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="J30" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" t="s">
-        <v>258</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="R30" t="s">
         <v>269</v>
       </c>
-      <c r="M30" t="s">
-        <v>124</v>
-      </c>
-      <c r="N30" t="s">
-        <v>36</v>
-      </c>
-      <c r="O30" t="s">
-        <v>270</v>
-      </c>
-      <c r="P30" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>273</v>
-      </c>
-      <c r="R30" t="s">
-        <v>274</v>
-      </c>
       <c r="S30" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="T30" s="5">
         <v>35.777433000000002</v>
@@ -5542,19 +5553,19 @@
         <v>-105.81093300000001</v>
       </c>
       <c r="X30" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Z30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AA30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB30" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AC30" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
     </row>
     <row r="31" spans="1:40">
@@ -5562,56 +5573,56 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C31" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J31" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L31" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M31" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O31" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="P31" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="Q31" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="R31" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="S31" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="T31" s="5">
         <v>35.835833000000001</v>
@@ -5620,19 +5631,19 @@
         <v>-106.161033</v>
       </c>
       <c r="X31" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Z31" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="AA31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB31" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AC31" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="32" spans="1:40">
@@ -5640,55 +5651,55 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>837</v>
+      </c>
+      <c r="C32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>838</v>
+      </c>
+      <c r="G32" t="s">
+        <v>974</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="J32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" t="s">
+        <v>253</v>
+      </c>
+      <c r="L32" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32" t="s">
+        <v>48</v>
+      </c>
+      <c r="N32" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" t="s">
+        <v>840</v>
+      </c>
+      <c r="P32" t="s">
+        <v>841</v>
+      </c>
+      <c r="Q32" t="s">
         <v>842</v>
       </c>
-      <c r="C32" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="R32" t="s">
         <v>843</v>
       </c>
-      <c r="G32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="7" t="s">
+      <c r="S32" t="s">
         <v>844</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="J32" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" t="s">
-        <v>258</v>
-      </c>
-      <c r="L32" t="s">
-        <v>84</v>
-      </c>
-      <c r="M32" t="s">
-        <v>51</v>
-      </c>
-      <c r="N32" t="s">
-        <v>35</v>
-      </c>
-      <c r="O32" t="s">
-        <v>845</v>
-      </c>
-      <c r="P32" t="s">
-        <v>846</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>847</v>
-      </c>
-      <c r="R32" t="s">
-        <v>848</v>
-      </c>
-      <c r="S32" t="s">
-        <v>849</v>
       </c>
       <c r="T32" s="5">
         <v>35.809766000000003</v>
@@ -5697,19 +5708,19 @@
         <v>-106.17026799999999</v>
       </c>
       <c r="X32" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="Z32" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="AA32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AB32" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="AC32" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -5717,38 +5728,38 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C33" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E33"/>
       <c r="G33" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="J33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K33" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M33" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T33" s="5">
         <v>33.419573999999997</v>
@@ -5757,19 +5768,19 @@
         <v>-105.98768200000001</v>
       </c>
       <c r="V33" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="X33" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Z33" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AA33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB33" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:28">
@@ -5777,44 +5788,44 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C34" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E34"/>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K34" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L34" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M34" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="S34" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="T34" s="5">
         <v>35.249327000000001</v>
@@ -5823,19 +5834,19 @@
         <v>-106.607283</v>
       </c>
       <c r="V34" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="X34" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="Z34" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AA34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB34" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -5843,53 +5854,53 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C35" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E35"/>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L35" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M35" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O35" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="P35" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="Q35" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="R35" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="S35" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="T35" s="5">
         <v>35.291533000000001</v>
@@ -5898,16 +5909,16 @@
         <v>-106.44105</v>
       </c>
       <c r="X35" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Z35" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="AA35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB35" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -5915,53 +5926,53 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C36" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E36"/>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K36" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L36" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M36" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="N36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O36" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="P36" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="Q36" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="R36" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="S36" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="T36" s="5">
         <v>35.796999999999997</v>
@@ -5970,16 +5981,16 @@
         <v>-106.24641699999999</v>
       </c>
       <c r="X36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Z36" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="AA36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB36" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -5987,53 +5998,53 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C37" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E37"/>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="J37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L37" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O37" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="P37" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="Q37" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="R37" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="S37" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="T37" s="5">
         <v>35.629817000000003</v>
@@ -6042,16 +6053,16 @@
         <v>-105.85896700000001</v>
       </c>
       <c r="X37" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Z37" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="AA37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB37" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -6059,53 +6070,53 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E38"/>
       <c r="G38" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="J38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K38" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L38" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O38" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="P38" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="Q38" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="R38" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="S38" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="T38" s="5">
         <v>35.670450000000002</v>
@@ -6114,16 +6125,16 @@
         <v>-105.900667</v>
       </c>
       <c r="X38" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="Z38" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AA38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB38" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -6131,38 +6142,38 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C39" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E39"/>
       <c r="G39" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K39" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L39" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M39" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T39" s="5">
         <v>35.828099000000002</v>
@@ -6171,19 +6182,19 @@
         <v>-106.641862</v>
       </c>
       <c r="V39" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="X39" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Z39" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="AA39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB39" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -6191,53 +6202,53 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E40"/>
       <c r="G40" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L40" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M40" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O40" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="P40" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="Q40" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="R40" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="S40" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="T40" s="5">
         <v>35.746200000000002</v>
@@ -6246,16 +6257,16 @@
         <v>-105.8342667</v>
       </c>
       <c r="X40" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Z40" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="AA40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB40" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:28">
@@ -6263,53 +6274,53 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C41" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E41"/>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="J41" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K41" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L41" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M41" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O41" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="P41" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="Q41" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="R41" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="S41" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="T41" s="5">
         <v>35.597000000000001</v>
@@ -6318,16 +6329,16 @@
         <v>-107.1053833</v>
       </c>
       <c r="X41" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Z41" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="AA41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB41" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:28">
@@ -6335,38 +6346,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C42" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E42"/>
       <c r="G42" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J42" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L42" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M42" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T42" s="5">
         <v>35.444819000000003</v>
@@ -6375,19 +6386,19 @@
         <v>-106.122029</v>
       </c>
       <c r="V42" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="X42" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="Z42" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AA42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB42" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -6395,53 +6406,53 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E43"/>
       <c r="G43" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J43" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L43" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M43" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N43" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O43" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="P43" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="Q43" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="R43" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="S43" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="T43" s="5">
         <v>35.728417</v>
@@ -6450,16 +6461,16 @@
         <v>-105.86597</v>
       </c>
       <c r="X43" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="Z43" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="AA43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB43" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:28">
@@ -6467,38 +6478,38 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C44" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E44"/>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="J44" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K44" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L44" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="M44" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N44" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T44" s="5">
         <v>36.367384999999999</v>
@@ -6507,19 +6518,19 @@
         <v>-106.677235</v>
       </c>
       <c r="V44" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="X44" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="Z44" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="AA44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB44" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -6527,53 +6538,53 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E45"/>
       <c r="G45" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J45" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L45" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="M45" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O45" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="P45" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="Q45" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="R45" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="S45" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="T45" s="5">
         <v>35.848166999999997</v>
@@ -6582,16 +6593,16 @@
         <v>-106.465383</v>
       </c>
       <c r="X45" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="Z45" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="AA45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB45" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:28">
@@ -6599,53 +6610,53 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E46"/>
       <c r="G46" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="J46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K46" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L46" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M46" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O46" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="P46" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="Q46" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="R46" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="S46" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="T46" s="5">
         <v>35.710749999999997</v>
@@ -6654,16 +6665,16 @@
         <v>-105.899467</v>
       </c>
       <c r="X46" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="Z46" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="AA46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB46" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="1:28">
@@ -6671,53 +6682,53 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C47" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D47" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E47"/>
       <c r="G47" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="J47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K47" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L47" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M47" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O47" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="P47" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="Q47" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="R47" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="S47" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="T47" s="5">
         <v>35.277000000000001</v>
@@ -6726,16 +6737,16 @@
         <v>-106.48403329999999</v>
       </c>
       <c r="X47" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="Z47" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="AA47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB47" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="1:28">
@@ -6743,53 +6754,53 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C48" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D48" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E48"/>
       <c r="G48" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="J48" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K48" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L48" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="M48" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O48" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="P48" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="Q48" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="R48" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="S48" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="T48" s="5">
         <v>35.804600000000001</v>
@@ -6798,16 +6809,16 @@
         <v>-106.1362333</v>
       </c>
       <c r="X48" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="Z48" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="AA48" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB48" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:28">
@@ -6815,38 +6826,38 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C49" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E49"/>
       <c r="G49" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="J49" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K49" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L49" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M49" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T49" s="5">
         <v>35.038224</v>
@@ -6855,19 +6866,19 @@
         <v>-108.348783</v>
       </c>
       <c r="V49" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="X49" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="Z49" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="AA49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB49" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:28">
@@ -6875,38 +6886,38 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C50" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E50"/>
       <c r="G50" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J50" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L50" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="M50" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N50" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T50" s="5">
         <v>32.782027999999997</v>
@@ -6915,19 +6926,19 @@
         <v>-108.147333</v>
       </c>
       <c r="V50" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="X50" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="Z50" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="AA50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB50" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="1:28">
@@ -6935,53 +6946,53 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C51" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E51"/>
       <c r="G51" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="J51" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K51" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L51" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="M51" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N51" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O51" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="P51" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="Q51" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="R51" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="S51" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="T51" s="5">
         <v>35.730716999999999</v>
@@ -6990,16 +7001,16 @@
         <v>-105.83710000000001</v>
       </c>
       <c r="X51" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Z51" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="AA51" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB51" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52" spans="1:28">
@@ -7007,38 +7018,38 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C52" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D52" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E52"/>
       <c r="G52" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J52" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K52" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="L52" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="M52" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N52" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T52" s="5">
         <v>36.305933000000003</v>
@@ -7047,19 +7058,19 @@
         <v>-106.05141999999999</v>
       </c>
       <c r="V52" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="X52" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="Z52" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="AA52" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB52" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="1:28">
@@ -7067,53 +7078,53 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C53" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E53"/>
       <c r="G53" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="J53" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K53" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L53" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M53" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N53" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O53" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="P53" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="Q53" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="R53" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="S53" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="T53" s="5">
         <v>35.551633000000002</v>
@@ -7122,16 +7133,16 @@
         <v>-106.23654999999999</v>
       </c>
       <c r="X53" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Z53" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="AA53" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB53" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="54" spans="1:28">
@@ -7139,53 +7150,53 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E54"/>
       <c r="G54" t="s">
-        <v>26</v>
+        <v>976</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="J54" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K54" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M54" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O54" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="P54" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="Q54" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="R54" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="S54" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="T54" s="5">
         <v>35.219667000000001</v>
@@ -7194,16 +7205,16 @@
         <v>-106.4810167</v>
       </c>
       <c r="X54" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="Z54" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="AA54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB54" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:28">
@@ -7211,38 +7222,38 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C55" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D55" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E55"/>
       <c r="G55" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J55" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K55" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L55" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="M55" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N55" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T55" s="5">
         <v>36.341431999999998</v>
@@ -7251,19 +7262,19 @@
         <v>-105.73646100000001</v>
       </c>
       <c r="V55" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="X55" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="Z55" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="AA55" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB55" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56" spans="1:28">
@@ -7271,50 +7282,50 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D56" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E56"/>
       <c r="G56" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J56" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K56" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L56" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O56" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="P56" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="R56" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="S56" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="T56" s="5">
         <v>35.814841000000001</v>
@@ -7323,16 +7334,16 @@
         <v>-106.533158</v>
       </c>
       <c r="X56" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>731</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB56" t="s">
         <v>421</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>736</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="57" spans="1:28">
@@ -7340,50 +7351,50 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C57" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E57"/>
       <c r="G57" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H57" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="J57" t="s">
+        <v>26</v>
+      </c>
+      <c r="K57" t="s">
+        <v>117</v>
+      </c>
+      <c r="L57" t="s">
         <v>424</v>
       </c>
-      <c r="I57" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="J57" t="s">
-        <v>29</v>
-      </c>
-      <c r="K57" t="s">
-        <v>122</v>
-      </c>
-      <c r="L57" t="s">
-        <v>429</v>
-      </c>
       <c r="M57" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O57" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="P57" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="R57" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="S57" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="T57" s="5">
         <v>35.995232999999999</v>
@@ -7392,16 +7403,16 @@
         <v>-107.0827</v>
       </c>
       <c r="X57" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="Z57" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="AA57" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB57" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="58" spans="1:28">
@@ -7409,38 +7420,38 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C58" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E58"/>
       <c r="G58" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J58" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K58" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L58" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M58" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N58" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T58" s="5">
         <v>36.010603000000003</v>
@@ -7449,19 +7460,19 @@
         <v>-106.980625</v>
       </c>
       <c r="V58" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="X58" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="Z58" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="AA58" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB58" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -7469,38 +7480,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E59"/>
       <c r="G59" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="J59" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K59" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="L59" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M59" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N59" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T59" s="5">
         <v>35.687010000000001</v>
@@ -7509,19 +7520,19 @@
         <v>-105.89697</v>
       </c>
       <c r="V59" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="X59" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="Z59" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="AA59" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB59" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -7529,44 +7540,44 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C60" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D60" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E60"/>
       <c r="G60" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J60" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K60" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L60" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M60" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N60" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O60" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="S60" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="T60" s="5">
         <v>35.495066999999999</v>
@@ -7575,19 +7586,19 @@
         <v>-106.921767</v>
       </c>
       <c r="V60" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="X60" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="Z60" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="AA60" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB60" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -7595,50 +7606,50 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E61"/>
       <c r="G61" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J61" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K61" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L61" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M61" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N61" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O61" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="P61" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="R61" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="S61" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="T61" s="5">
         <v>35.771583</v>
@@ -7647,16 +7658,16 @@
         <v>-106.19055</v>
       </c>
       <c r="X61" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="Z61" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="AA61" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB61" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -7664,53 +7675,53 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C62" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E62"/>
       <c r="G62" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J62" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K62" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L62" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M62" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N62" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O62" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="P62" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="Q62" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="R62" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="S62" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="T62" s="5">
         <v>33.032667000000004</v>
@@ -7719,16 +7730,16 @@
         <v>-108.1536667</v>
       </c>
       <c r="X62" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="Z62" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="AA62" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB62" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -7736,38 +7747,38 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C63" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E63"/>
       <c r="G63" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="J63" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K63" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="L63" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M63" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N63" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T63" s="5">
         <v>35.542743000000002</v>
@@ -7776,19 +7787,19 @@
         <v>-108.613801</v>
       </c>
       <c r="V63" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="X63" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="Z63" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="AA63" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB63" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="1:28">
@@ -7796,50 +7807,50 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C64" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E64"/>
       <c r="G64" t="s">
-        <v>26</v>
+        <v>976</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="J64" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K64" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L64" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M64" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N64" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P64" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="Q64" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="R64" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="S64" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="T64" s="5">
         <v>35.809767000000001</v>
@@ -7848,16 +7859,16 @@
         <v>-106.200917</v>
       </c>
       <c r="X64" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="Z64" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="AA64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB64" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="65" spans="1:28">
@@ -7865,38 +7876,38 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C65" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D65" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E65"/>
       <c r="G65" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J65" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K65" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L65" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M65" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N65" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T65" s="5">
         <v>34.239570999999998</v>
@@ -7905,19 +7916,19 @@
         <v>-107.026899</v>
       </c>
       <c r="V65" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="X65" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="Z65" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="AA65" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB65" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" spans="1:28">
@@ -7925,50 +7936,50 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C66" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D66" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E66"/>
       <c r="G66" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="J66" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L66" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M66" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N66" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O66" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="P66" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="R66" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="S66" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="T66" s="5">
         <v>35.300150000000002</v>
@@ -7977,16 +7988,16 @@
         <v>-106.48046669999999</v>
       </c>
       <c r="X66" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="Z66" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="AA66" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB66" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:28">
@@ -7994,53 +8005,53 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D67" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E67"/>
       <c r="G67" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="J67" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K67" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L67" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="M67" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O67" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="P67" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="Q67" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="R67" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="S67" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="T67" s="5">
         <v>35.656750000000002</v>
@@ -8049,16 +8060,16 @@
         <v>-105.92095</v>
       </c>
       <c r="X67" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="Z67" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="AA67" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB67" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -8066,38 +8077,38 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C68" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D68" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E68"/>
       <c r="G68" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="J68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K68" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L68" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M68" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N68" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T68" s="5">
         <v>35.661033000000003</v>
@@ -8106,19 +8117,19 @@
         <v>-106.416106</v>
       </c>
       <c r="V68" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="X68" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="Z68" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="AA68" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB68" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -8126,53 +8137,53 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E69"/>
       <c r="G69" t="s">
-        <v>26</v>
+        <v>976</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="J69" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K69" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L69" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M69" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N69" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O69" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="P69" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="Q69" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="R69" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="S69" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="T69" s="5">
         <v>35.759782999999999</v>
@@ -8181,16 +8192,16 @@
         <v>-105.845917</v>
       </c>
       <c r="X69" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="Z69" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="AA69" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB69" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="70" spans="1:28">
@@ -8198,38 +8209,38 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C70" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D70" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E70"/>
       <c r="G70" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J70" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K70" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="L70" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="M70" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T70" s="5">
         <v>33.377809999999997</v>
@@ -8238,19 +8249,19 @@
         <v>-108.839842</v>
       </c>
       <c r="V70" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="X70" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="Z70" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="AA70" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB70" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="71" spans="1:28">
@@ -8258,53 +8269,53 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C71" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E71"/>
       <c r="G71" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J71" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" t="s">
+        <v>117</v>
+      </c>
+      <c r="L71" t="s">
+        <v>452</v>
+      </c>
+      <c r="M71" t="s">
+        <v>629</v>
+      </c>
+      <c r="N71" t="s">
         <v>32</v>
       </c>
-      <c r="K71" t="s">
-        <v>122</v>
-      </c>
-      <c r="L71" t="s">
-        <v>457</v>
-      </c>
-      <c r="M71" t="s">
-        <v>634</v>
-      </c>
-      <c r="N71" t="s">
-        <v>35</v>
-      </c>
       <c r="O71" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="P71" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="Q71" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="R71" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="S71" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="T71" s="5">
         <v>35.602682999999999</v>
@@ -8313,16 +8324,16 @@
         <v>-106.19663</v>
       </c>
       <c r="X71" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="Z71" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="AA71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB71" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -8330,47 +8341,47 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C72" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E72"/>
       <c r="G72" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J72" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K72" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L72" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="M72" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N72" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P72" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="R72" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="S72" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="T72" s="5">
         <v>35.857076999999997</v>
@@ -8379,16 +8390,16 @@
         <v>-106.491058</v>
       </c>
       <c r="X72" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="Z72" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="AA72" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB72" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="73" spans="1:28">
@@ -8396,38 +8407,38 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C73" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E73"/>
       <c r="G73" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J73" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K73" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="L73" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="M73" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N73" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T73" s="5">
         <v>35.264797999999999</v>
@@ -8436,19 +8447,19 @@
         <v>-105.33362</v>
       </c>
       <c r="V73" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="X73" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="Z73" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="AA73" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB73" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -8456,38 +8467,38 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C74" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D74" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E74"/>
       <c r="G74" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="J74" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K74" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="L74" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M74" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T74" s="5">
         <v>36.572704000000002</v>
@@ -8496,19 +8507,19 @@
         <v>-105.436408</v>
       </c>
       <c r="V74" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="X74" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Z74" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="AA74" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB74" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -8516,53 +8527,53 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C75" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E75"/>
       <c r="G75" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="J75" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K75" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L75" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="M75" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="N75" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O75" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="P75" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="Q75" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="R75" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="S75" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="T75" s="5">
         <v>36.323332999999998</v>
@@ -8571,16 +8582,16 @@
         <v>-105.70366666</v>
       </c>
       <c r="X75" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="Z75" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="AA75" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB75" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -8588,38 +8599,38 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C76" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D76" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E76"/>
       <c r="G76" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J76" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K76" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L76" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M76" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N76" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T76" s="5">
         <v>35.860416000000001</v>
@@ -8628,19 +8639,19 @@
         <v>-106.224682</v>
       </c>
       <c r="V76" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="X76" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="Z76" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="AA76" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB76" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -8648,38 +8659,38 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C77" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D77" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E77"/>
       <c r="G77" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J77" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K77" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L77" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="M77" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N77" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T77" s="5">
         <v>33.759011999999998</v>
@@ -8688,16 +8699,16 @@
         <v>-106.895278</v>
       </c>
       <c r="X77" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="Z77" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="AA77" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB77" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -8705,38 +8716,38 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C78" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D78" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E78"/>
       <c r="G78" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J78" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K78" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L78" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M78" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N78" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T78" s="5">
         <v>35.188867000000002</v>
@@ -8745,19 +8756,19 @@
         <v>-106.686269</v>
       </c>
       <c r="V78" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="X78" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="Z78" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="AA78" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB78" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" spans="1:28">
@@ -8765,38 +8776,38 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C79" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E79"/>
       <c r="G79" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J79" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K79" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L79" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="M79" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N79" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T79" s="5">
         <v>35.126851000000002</v>
@@ -8805,19 +8816,19 @@
         <v>-106.72463500000001</v>
       </c>
       <c r="V79" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="X79" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="Z79" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="AA79" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB79" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -8825,50 +8836,50 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C80" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D80" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E80"/>
       <c r="G80" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J80" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K80" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L80" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="M80" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="N80" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O80" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="P80" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="R80" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="S80" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="T80" s="5">
         <v>35.130749999999999</v>
@@ -8877,19 +8888,19 @@
         <v>-106.7802667</v>
       </c>
       <c r="V80" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="X80" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="Z80" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="AA80" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB80" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="81" spans="1:42">
@@ -8897,47 +8908,47 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C81" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D81" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E81"/>
       <c r="G81" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J81" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K81" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L81" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="M81" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N81" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O81" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="R81" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="S81" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="T81" s="5">
         <v>34.944732999999999</v>
@@ -8946,19 +8957,19 @@
         <v>-108.106983</v>
       </c>
       <c r="V81" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="X81" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="Z81" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="AA81" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB81" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="82" spans="1:42">
@@ -8966,38 +8977,38 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C82" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E82"/>
       <c r="G82" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J82" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K82" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L82" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M82" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N82" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T82" s="5">
         <v>34.993110000000001</v>
@@ -9006,16 +9017,16 @@
         <v>-108.080084</v>
       </c>
       <c r="X82" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="Z82" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="AA82" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB82" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="83" spans="1:42">
@@ -9023,53 +9034,53 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C83" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D83" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E83"/>
       <c r="G83" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J83" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K83" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="L83" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="M83" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N83" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O83" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="P83" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="Q83" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="R83" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="S83" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="T83" s="5">
         <v>34.969799999999999</v>
@@ -9078,16 +9089,16 @@
         <v>-108.00324999999999</v>
       </c>
       <c r="X83" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="Z83" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="AA83" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB83" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="84" spans="1:42">
@@ -9095,38 +9106,38 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C84" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E84"/>
       <c r="G84" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J84" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K84" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L84" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="M84" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N84" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T84" s="5">
         <v>336.064977</v>
@@ -9135,19 +9146,19 @@
         <v>-107.96986699999999</v>
       </c>
       <c r="V84" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="X84" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Z84" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA84" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB84" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:42">
@@ -9155,38 +9166,38 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C85" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D85" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E85"/>
       <c r="G85" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="J85" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K85" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L85" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="M85" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N85" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T85" s="5">
         <v>36.049536000000003</v>
@@ -9195,19 +9206,19 @@
         <v>-107.93031000000001</v>
       </c>
       <c r="V85" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="X85" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Z85" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA85" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB85" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:42">
@@ -9215,38 +9226,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C86" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E86"/>
       <c r="G86" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J86" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K86" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L86" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="M86" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N86" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T86" s="5">
         <v>36.059215999999999</v>
@@ -9255,19 +9266,19 @@
         <v>-107.958934</v>
       </c>
       <c r="V86" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="X86" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="Z86" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA86" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB86" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:42">
@@ -9275,38 +9286,38 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C87" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E87"/>
       <c r="G87" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="J87" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K87" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L87" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="M87" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N87" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T87" s="5">
         <v>36.330525000000002</v>
@@ -9315,19 +9326,19 @@
         <v>-106.47481999999999</v>
       </c>
       <c r="V87" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="X87" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="Z87" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="AA87" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB87" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="88" spans="1:42">
@@ -9335,38 +9346,38 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C88" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D88" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E88"/>
       <c r="G88" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="J88" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K88" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L88" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="M88" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T88" s="5">
         <v>36.336353000000003</v>
@@ -9375,16 +9386,16 @@
         <v>-106.469007</v>
       </c>
       <c r="X88" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="Z88" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="AA88" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB88" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="89" spans="1:42">
@@ -9392,38 +9403,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C89" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D89" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E89"/>
       <c r="G89" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="J89" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K89" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L89" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="M89" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T89" s="5">
         <v>34.793491000000003</v>
@@ -9432,19 +9443,19 @@
         <v>-106.37226800000001</v>
       </c>
       <c r="V89" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="X89" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="Z89" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="AA89" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB89" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="90" spans="1:42">
@@ -9452,38 +9463,38 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C90" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D90" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E90"/>
       <c r="G90" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="J90" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K90" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L90" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="M90" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N90" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="T90" s="5">
         <v>34.790706999999998</v>
@@ -9492,19 +9503,19 @@
         <v>-106.38243900000001</v>
       </c>
       <c r="V90" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="X90" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="Z90" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="AA90" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB90" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="91" spans="1:42">
@@ -9512,50 +9523,50 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C91" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D91" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E91"/>
       <c r="G91" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="J91" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K91" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L91" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="M91" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N91" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O91" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="P91" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="R91" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="S91" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="T91" s="5">
         <v>35.568616665999997</v>
@@ -9564,16 +9575,16 @@
         <v>-106.8122</v>
       </c>
       <c r="X91" t="s">
+        <v>562</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>831</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB91" t="s">
         <v>567</v>
-      </c>
-      <c r="Z91" t="s">
-        <v>836</v>
-      </c>
-      <c r="AA91" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB91" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="92" spans="1:42">
@@ -9581,53 +9592,53 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C92" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D92" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E92"/>
       <c r="G92" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="J92" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K92" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L92" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M92" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N92" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O92" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="P92" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="Q92" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="R92" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="S92" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="T92" s="5">
         <v>35.828252999999997</v>
@@ -9636,16 +9647,16 @@
         <v>-106.32896100000001</v>
       </c>
       <c r="X92" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="Z92" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="AA92" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB92" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="1:42">
@@ -9653,46 +9664,46 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="C93" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D93" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="J93" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K93" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="L93" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="M93" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="N93" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P93" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="R93" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="S93" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="T93" s="5">
         <v>35.821131999999999</v>
@@ -9701,16 +9712,16 @@
         <v>-105.893742</v>
       </c>
       <c r="X93" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="Z93" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="AA93" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB93" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="94" spans="1:42">
@@ -9718,52 +9729,52 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
+        <v>856</v>
+      </c>
+      <c r="C94" t="s">
+        <v>333</v>
+      </c>
+      <c r="D94" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" t="s">
+        <v>974</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="J94" t="s">
+        <v>26</v>
+      </c>
+      <c r="K94" t="s">
+        <v>117</v>
+      </c>
+      <c r="L94" t="s">
+        <v>858</v>
+      </c>
+      <c r="M94" t="s">
+        <v>629</v>
+      </c>
+      <c r="N94" t="s">
+        <v>32</v>
+      </c>
+      <c r="O94" t="s">
+        <v>859</v>
+      </c>
+      <c r="P94" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q94" t="s">
         <v>861</v>
       </c>
-      <c r="C94" t="s">
-        <v>338</v>
-      </c>
-      <c r="D94" t="s">
-        <v>42</v>
-      </c>
-      <c r="G94" t="s">
-        <v>24</v>
-      </c>
-      <c r="H94" s="7" t="s">
+      <c r="R94" t="s">
         <v>862</v>
       </c>
-      <c r="I94" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="J94" t="s">
-        <v>29</v>
-      </c>
-      <c r="K94" t="s">
-        <v>122</v>
-      </c>
-      <c r="L94" t="s">
+      <c r="S94" t="s">
         <v>863</v>
-      </c>
-      <c r="M94" t="s">
-        <v>634</v>
-      </c>
-      <c r="N94" t="s">
-        <v>35</v>
-      </c>
-      <c r="O94" t="s">
-        <v>864</v>
-      </c>
-      <c r="P94" t="s">
-        <v>865</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>866</v>
-      </c>
-      <c r="R94" t="s">
-        <v>867</v>
-      </c>
-      <c r="S94" t="s">
-        <v>868</v>
       </c>
       <c r="T94" s="5">
         <v>35.506110999999997</v>
@@ -9772,16 +9783,16 @@
         <v>-107.149912</v>
       </c>
       <c r="X94" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="Z94" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="AA94" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB94" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
     </row>
     <row r="95" spans="1:42">
@@ -9789,52 +9800,52 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
+        <v>867</v>
+      </c>
+      <c r="C95" t="s">
+        <v>51</v>
+      </c>
+      <c r="D95" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" t="s">
+        <v>974</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J95" t="s">
+        <v>26</v>
+      </c>
+      <c r="K95" t="s">
+        <v>117</v>
+      </c>
+      <c r="L95" t="s">
+        <v>868</v>
+      </c>
+      <c r="M95" t="s">
+        <v>629</v>
+      </c>
+      <c r="N95" t="s">
+        <v>32</v>
+      </c>
+      <c r="O95" t="s">
+        <v>869</v>
+      </c>
+      <c r="P95" t="s">
+        <v>870</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>871</v>
+      </c>
+      <c r="R95" t="s">
         <v>872</v>
       </c>
-      <c r="C95" t="s">
-        <v>54</v>
-      </c>
-      <c r="D95" t="s">
-        <v>42</v>
-      </c>
-      <c r="G95" t="s">
-        <v>24</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="J95" t="s">
-        <v>29</v>
-      </c>
-      <c r="K95" t="s">
-        <v>122</v>
-      </c>
-      <c r="L95" t="s">
-        <v>873</v>
-      </c>
-      <c r="M95" t="s">
-        <v>634</v>
-      </c>
-      <c r="N95" t="s">
-        <v>35</v>
-      </c>
-      <c r="O95" t="s">
-        <v>874</v>
-      </c>
-      <c r="P95" t="s">
-        <v>875</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>876</v>
-      </c>
-      <c r="R95" t="s">
-        <v>877</v>
-      </c>
       <c r="S95" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="T95" s="5">
         <v>36.311774999999997</v>
@@ -9843,16 +9854,16 @@
         <v>-108.00259440000001</v>
       </c>
       <c r="X95" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="Z95" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="AA95" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB95" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="96" spans="1:42">
@@ -9860,52 +9871,52 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
+        <v>876</v>
+      </c>
+      <c r="C96" t="s">
+        <v>877</v>
+      </c>
+      <c r="D96" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" t="s">
+        <v>974</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J96" t="s">
+        <v>26</v>
+      </c>
+      <c r="K96" t="s">
+        <v>117</v>
+      </c>
+      <c r="L96" t="s">
+        <v>868</v>
+      </c>
+      <c r="M96" t="s">
+        <v>640</v>
+      </c>
+      <c r="N96" t="s">
+        <v>32</v>
+      </c>
+      <c r="O96" t="s">
+        <v>878</v>
+      </c>
+      <c r="P96" t="s">
+        <v>879</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>880</v>
+      </c>
+      <c r="R96" t="s">
         <v>881</v>
       </c>
-      <c r="C96" t="s">
+      <c r="S96" t="s">
         <v>882</v>
-      </c>
-      <c r="D96" t="s">
-        <v>42</v>
-      </c>
-      <c r="G96" t="s">
-        <v>24</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="J96" t="s">
-        <v>29</v>
-      </c>
-      <c r="K96" t="s">
-        <v>122</v>
-      </c>
-      <c r="L96" t="s">
-        <v>873</v>
-      </c>
-      <c r="M96" t="s">
-        <v>645</v>
-      </c>
-      <c r="N96" t="s">
-        <v>35</v>
-      </c>
-      <c r="O96" t="s">
-        <v>883</v>
-      </c>
-      <c r="P96" t="s">
-        <v>884</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>885</v>
-      </c>
-      <c r="R96" t="s">
-        <v>886</v>
-      </c>
-      <c r="S96" t="s">
-        <v>887</v>
       </c>
       <c r="T96" s="5">
         <v>36.241438899999999</v>
@@ -9914,52 +9925,52 @@
         <v>-108.2632335</v>
       </c>
       <c r="X96" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="Y96" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="Z96" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="AA96" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB96" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="AD96" t="s">
+        <v>948</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>949</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>950</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>947</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>946</v>
+      </c>
+      <c r="AJ96" t="s">
+        <v>953</v>
+      </c>
+      <c r="AK96" t="s">
         <v>954</v>
       </c>
-      <c r="AE96" t="s">
-        <v>955</v>
-      </c>
-      <c r="AF96" t="s">
-        <v>956</v>
-      </c>
-      <c r="AG96" t="s">
-        <v>953</v>
-      </c>
-      <c r="AH96" t="s">
-        <v>952</v>
-      </c>
-      <c r="AJ96" t="s">
-        <v>959</v>
-      </c>
-      <c r="AK96" t="s">
-        <v>960</v>
-      </c>
       <c r="AM96" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="AN96" t="s">
+        <v>964</v>
+      </c>
+      <c r="AO96" t="s">
+        <v>969</v>
+      </c>
+      <c r="AP96" t="s">
         <v>970</v>
-      </c>
-      <c r="AO96" t="s">
-        <v>975</v>
-      </c>
-      <c r="AP96" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -9967,52 +9978,52 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
+        <v>886</v>
+      </c>
+      <c r="C97" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" t="s">
+        <v>974</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="J97" t="s">
+        <v>27</v>
+      </c>
+      <c r="K97" t="s">
+        <v>117</v>
+      </c>
+      <c r="L97" t="s">
+        <v>887</v>
+      </c>
+      <c r="M97" t="s">
+        <v>119</v>
+      </c>
+      <c r="N97" t="s">
+        <v>33</v>
+      </c>
+      <c r="O97" t="s">
+        <v>888</v>
+      </c>
+      <c r="P97" t="s">
+        <v>889</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>890</v>
+      </c>
+      <c r="R97" t="s">
         <v>891</v>
       </c>
-      <c r="C97" t="s">
-        <v>63</v>
-      </c>
-      <c r="D97" t="s">
-        <v>42</v>
-      </c>
-      <c r="G97" t="s">
-        <v>24</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="J97" t="s">
-        <v>30</v>
-      </c>
-      <c r="K97" t="s">
-        <v>122</v>
-      </c>
-      <c r="L97" t="s">
+      <c r="S97" t="s">
         <v>892</v>
-      </c>
-      <c r="M97" t="s">
-        <v>124</v>
-      </c>
-      <c r="N97" t="s">
-        <v>36</v>
-      </c>
-      <c r="O97" t="s">
-        <v>893</v>
-      </c>
-      <c r="P97" t="s">
-        <v>894</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>895</v>
-      </c>
-      <c r="R97" t="s">
-        <v>896</v>
-      </c>
-      <c r="S97" t="s">
-        <v>897</v>
       </c>
       <c r="T97" s="5">
         <v>35.222724999999997</v>
@@ -10021,16 +10032,16 @@
         <v>-106.48348</v>
       </c>
       <c r="X97" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="Z97" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="AA97" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB97" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -10038,49 +10049,49 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
+        <v>894</v>
+      </c>
+      <c r="C98" t="s">
+        <v>60</v>
+      </c>
+      <c r="D98" t="s">
+        <v>39</v>
+      </c>
+      <c r="G98" t="s">
+        <v>975</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="J98" t="s">
+        <v>26</v>
+      </c>
+      <c r="K98" t="s">
+        <v>65</v>
+      </c>
+      <c r="L98" t="s">
+        <v>895</v>
+      </c>
+      <c r="M98" t="s">
+        <v>629</v>
+      </c>
+      <c r="N98" t="s">
+        <v>32</v>
+      </c>
+      <c r="O98" t="s">
+        <v>896</v>
+      </c>
+      <c r="P98" t="s">
+        <v>897</v>
+      </c>
+      <c r="R98" t="s">
+        <v>898</v>
+      </c>
+      <c r="S98" t="s">
         <v>899</v>
-      </c>
-      <c r="C98" t="s">
-        <v>63</v>
-      </c>
-      <c r="D98" t="s">
-        <v>42</v>
-      </c>
-      <c r="G98" t="s">
-        <v>25</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="J98" t="s">
-        <v>29</v>
-      </c>
-      <c r="K98" t="s">
-        <v>68</v>
-      </c>
-      <c r="L98" t="s">
-        <v>900</v>
-      </c>
-      <c r="M98" t="s">
-        <v>634</v>
-      </c>
-      <c r="N98" t="s">
-        <v>35</v>
-      </c>
-      <c r="O98" t="s">
-        <v>901</v>
-      </c>
-      <c r="P98" t="s">
-        <v>902</v>
-      </c>
-      <c r="R98" t="s">
-        <v>903</v>
-      </c>
-      <c r="S98" t="s">
-        <v>904</v>
       </c>
       <c r="T98" s="5">
         <v>35.130690000000001</v>
@@ -10089,16 +10100,16 @@
         <v>-106.684523</v>
       </c>
       <c r="X98" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="Z98" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="AA98" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB98" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -10106,52 +10117,52 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
+        <v>905</v>
+      </c>
+      <c r="C99" t="s">
+        <v>340</v>
+      </c>
+      <c r="D99" t="s">
+        <v>39</v>
+      </c>
+      <c r="G99" t="s">
+        <v>974</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="J99" t="s">
+        <v>26</v>
+      </c>
+      <c r="K99" t="s">
+        <v>117</v>
+      </c>
+      <c r="L99" t="s">
+        <v>80</v>
+      </c>
+      <c r="M99" t="s">
+        <v>629</v>
+      </c>
+      <c r="N99" t="s">
+        <v>32</v>
+      </c>
+      <c r="O99" t="s">
+        <v>908</v>
+      </c>
+      <c r="P99" t="s">
+        <v>909</v>
+      </c>
+      <c r="Q99" t="s">
         <v>910</v>
       </c>
-      <c r="C99" t="s">
-        <v>345</v>
-      </c>
-      <c r="D99" t="s">
-        <v>42</v>
-      </c>
-      <c r="G99" t="s">
-        <v>24</v>
-      </c>
-      <c r="H99" s="7" t="s">
+      <c r="R99" t="s">
         <v>911</v>
       </c>
-      <c r="I99" s="7" t="s">
+      <c r="S99" t="s">
         <v>912</v>
-      </c>
-      <c r="J99" t="s">
-        <v>29</v>
-      </c>
-      <c r="K99" t="s">
-        <v>122</v>
-      </c>
-      <c r="L99" t="s">
-        <v>84</v>
-      </c>
-      <c r="M99" t="s">
-        <v>634</v>
-      </c>
-      <c r="N99" t="s">
-        <v>35</v>
-      </c>
-      <c r="O99" t="s">
-        <v>913</v>
-      </c>
-      <c r="P99" t="s">
-        <v>914</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>915</v>
-      </c>
-      <c r="R99" t="s">
-        <v>916</v>
-      </c>
-      <c r="S99" t="s">
-        <v>917</v>
       </c>
       <c r="T99" s="5">
         <v>35.450367</v>
@@ -10160,16 +10171,16 @@
         <v>-106.13902299999999</v>
       </c>
       <c r="X99" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="Z99" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="AA99" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB99" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -10177,22 +10188,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C100" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E100" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K100" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L100" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="T100" s="5">
         <v>35.039636000000002</v>
@@ -10201,13 +10212,13 @@
         <v>-108.34508099999999</v>
       </c>
       <c r="Z100" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="AA100" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AB100" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -10260,7 +10271,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -10271,7 +10282,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>936</v>
+        <v>972</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10282,7 +10293,7 @@
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -10293,7 +10304,7 @@
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -10304,7 +10315,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -10315,13 +10326,19 @@
         <v>5</v>
       </c>
       <c r="C115" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="10">
         <v>114</v>
       </c>
+      <c r="B116">
+        <v>6</v>
+      </c>
+      <c r="C116" t="s">
+        <v>973</v>
+      </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="10">
@@ -10495,118 +10512,118 @@
     </row>
     <row r="285" spans="7:14">
       <c r="G285" t="s">
-        <v>26</v>
+        <v>976</v>
       </c>
       <c r="J285" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N285" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="299" spans="2:2">
       <c r="B299" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="300" spans="2:2">
       <c r="B300" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
     </row>
     <row r="301" spans="2:2">
       <c r="B301" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
     </row>
     <row r="302" spans="2:2">
       <c r="B302" t="s">
-        <v>26</v>
+        <v>976</v>
       </c>
     </row>
     <row r="304" spans="2:2">
       <c r="B304" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="305" spans="2:2">
       <c r="B305" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="306" spans="2:2">
       <c r="B306" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="307" spans="2:2">
       <c r="B307" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="308" spans="2:2">
       <c r="B308" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="309" spans="2:2">
       <c r="B309" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="311" spans="2:2">
       <c r="B311" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="312" spans="2:2">
       <c r="B312" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="313" spans="2:2">
       <c r="B313" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="314" spans="2:2">
       <c r="B314" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="316" spans="2:2">
       <c r="B316" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="317" spans="2:2">
       <c r="B317" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="318" spans="2:2">
       <c r="B318" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="319" spans="2:2">
       <c r="B319" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="321" spans="2:2">
       <c r="B321" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="322" spans="2:2">
       <c r="B322" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="323" spans="2:2">
       <c r="B323" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
